--- a/Code/Results/Cases/Case_4_236/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_236/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.37937118110541</v>
+        <v>18.84877743030339</v>
       </c>
       <c r="C2">
-        <v>13.29226364003025</v>
+        <v>8.467262516539574</v>
       </c>
       <c r="D2">
-        <v>7.111164034588844</v>
+        <v>6.025832147652803</v>
       </c>
       <c r="E2">
-        <v>7.421518759374214</v>
+        <v>11.08676915021225</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>64.0149980758233</v>
+        <v>57.84971770939936</v>
       </c>
       <c r="H2">
-        <v>17.70192258598638</v>
+        <v>20.84627224527631</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.166319313263187</v>
+        <v>10.00530866477253</v>
       </c>
       <c r="M2">
-        <v>12.46496533451348</v>
+        <v>16.65907924409281</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.84407007153318</v>
+        <v>18.53120132466005</v>
       </c>
       <c r="C3">
-        <v>12.53386874639263</v>
+        <v>8.103244832029704</v>
       </c>
       <c r="D3">
-        <v>6.599055011630623</v>
+        <v>5.915409022124485</v>
       </c>
       <c r="E3">
-        <v>7.425689373022633</v>
+        <v>11.08818344010213</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>60.80798303906837</v>
+        <v>57.05102847272899</v>
       </c>
       <c r="H3">
-        <v>17.13645082549772</v>
+        <v>20.76891903457282</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.094472190910951</v>
+        <v>10.01776881871444</v>
       </c>
       <c r="M3">
-        <v>11.9267462957365</v>
+        <v>16.61938382040234</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.85586472230216</v>
+        <v>18.34014054749969</v>
       </c>
       <c r="C4">
-        <v>12.04892910952403</v>
+        <v>7.869076040731149</v>
       </c>
       <c r="D4">
-        <v>6.276178897868684</v>
+        <v>5.848546960752619</v>
       </c>
       <c r="E4">
-        <v>7.428972674115466</v>
+        <v>11.08916771116861</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>58.82059405043668</v>
+        <v>56.56984056009963</v>
       </c>
       <c r="H4">
-        <v>16.79570294604015</v>
+        <v>20.72536101413633</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.053630552530407</v>
+        <v>10.0268943145043</v>
       </c>
       <c r="M4">
-        <v>11.59495210874976</v>
+        <v>16.59907578313822</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.44156725678114</v>
+        <v>18.26338709492128</v>
       </c>
       <c r="C5">
-        <v>11.846435123661</v>
+        <v>7.771028459371651</v>
       </c>
       <c r="D5">
-        <v>6.15977217664284</v>
+        <v>5.821575146787315</v>
       </c>
       <c r="E5">
-        <v>7.430478835597225</v>
+        <v>11.08959777205918</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>58.00671303955632</v>
+        <v>56.37627279005687</v>
       </c>
       <c r="H5">
-        <v>16.65850588040028</v>
+        <v>20.70860694771635</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.037792430822949</v>
+        <v>10.03098385761376</v>
       </c>
       <c r="M5">
-        <v>11.45956013324506</v>
+        <v>16.59182821521824</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.37887042328145</v>
+        <v>18.25071237947277</v>
       </c>
       <c r="C6">
-        <v>11.81251623590359</v>
+        <v>7.75459128177686</v>
       </c>
       <c r="D6">
-        <v>6.140319821740955</v>
+        <v>5.817114246575329</v>
       </c>
       <c r="E6">
-        <v>7.430738724472098</v>
+        <v>11.0896709274059</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>57.87134755417753</v>
+        <v>56.34428906920975</v>
       </c>
       <c r="H6">
-        <v>16.63582600633692</v>
+        <v>20.7058852706308</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.035210635992145</v>
+        <v>10.03168531787701</v>
       </c>
       <c r="M6">
-        <v>11.43707224061581</v>
+        <v>16.59068701122449</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.85032448768268</v>
+        <v>18.3391007952266</v>
       </c>
       <c r="C7">
-        <v>12.04621797178396</v>
+        <v>7.867764268019882</v>
       </c>
       <c r="D7">
-        <v>6.274617299189894</v>
+        <v>5.848182044344117</v>
       </c>
       <c r="E7">
-        <v>7.42899232248821</v>
+        <v>11.08917339406588</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>58.80963306907183</v>
+        <v>56.56721956818254</v>
       </c>
       <c r="H7">
-        <v>16.79384587747451</v>
+        <v>20.725131022375</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.053413717318715</v>
+        <v>10.02694796614872</v>
       </c>
       <c r="M7">
-        <v>11.5931266887999</v>
+        <v>16.59897387007002</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.85934947118531</v>
+        <v>18.73853138287272</v>
       </c>
       <c r="C8">
-        <v>13.03474608203558</v>
+        <v>8.343994181617601</v>
       </c>
       <c r="D8">
-        <v>6.937720291716783</v>
+        <v>5.987587028729017</v>
       </c>
       <c r="E8">
-        <v>7.422798212246652</v>
+        <v>11.08723263560413</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.91330846668928</v>
+        <v>57.57254222472119</v>
       </c>
       <c r="H8">
-        <v>17.50562672945329</v>
+        <v>20.81878773736144</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.140856327688565</v>
+        <v>10.00929879200683</v>
       </c>
       <c r="M8">
-        <v>12.27974400645294</v>
+        <v>16.6445523951314</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.44608245874783</v>
+        <v>19.54785020075698</v>
       </c>
       <c r="C9">
-        <v>14.82289835826228</v>
+        <v>9.19116716839981</v>
       </c>
       <c r="D9">
-        <v>8.13429019220019</v>
+        <v>6.266687762943307</v>
       </c>
       <c r="E9">
-        <v>7.417084326394299</v>
+        <v>11.0843545460656</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>70.79971824990136</v>
+        <v>59.6078497589692</v>
       </c>
       <c r="H9">
-        <v>18.95190218616268</v>
+        <v>21.03336793342494</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.339141647913078</v>
+        <v>9.986392810712582</v>
       </c>
       <c r="M9">
-        <v>13.81674014368687</v>
+        <v>16.7658828126018</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.8798692032845</v>
+        <v>20.15144802176962</v>
       </c>
       <c r="C10">
-        <v>16.05063439104616</v>
+        <v>9.75843078335885</v>
       </c>
       <c r="D10">
-        <v>8.947250342190566</v>
+        <v>6.472969991205336</v>
       </c>
       <c r="E10">
-        <v>7.417953158736901</v>
+        <v>11.08281706351165</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>76.4897461448991</v>
+        <v>61.12960261159046</v>
       </c>
       <c r="H10">
-        <v>20.04615227334779</v>
+        <v>21.20937096889499</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.5024574423118</v>
+        <v>9.976699117263747</v>
       </c>
       <c r="M10">
-        <v>15.155558840347</v>
+        <v>16.87403312271295</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.94706476738382</v>
+        <v>20.42657279396526</v>
       </c>
       <c r="C11">
-        <v>16.59229164212263</v>
+        <v>10.00416663853517</v>
       </c>
       <c r="D11">
-        <v>9.304155283493408</v>
+        <v>6.566617951206245</v>
       </c>
       <c r="E11">
-        <v>7.419764527681741</v>
+        <v>11.08224545095647</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>79.05893383705288</v>
+        <v>61.82495264392307</v>
       </c>
       <c r="H11">
-        <v>20.55168863281697</v>
+        <v>21.29329482536536</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.580918234269788</v>
+        <v>9.973837570713403</v>
       </c>
       <c r="M11">
-        <v>15.74198131071443</v>
+        <v>16.92724115766038</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.34580587362488</v>
+        <v>20.53072001384295</v>
       </c>
       <c r="C12">
-        <v>16.79517274731322</v>
+        <v>10.09542705970278</v>
       </c>
       <c r="D12">
-        <v>9.437585318985906</v>
+        <v>6.602015906197376</v>
       </c>
       <c r="E12">
-        <v>7.420686474023153</v>
+        <v>11.08204758406227</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>80.0296314609952</v>
+        <v>62.08848818379325</v>
       </c>
       <c r="H12">
-        <v>20.7443620280024</v>
+        <v>21.3256168437406</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.611261706857523</v>
+        <v>9.972976386890787</v>
       </c>
       <c r="M12">
-        <v>15.96100068606103</v>
+        <v>16.94795467768776</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.26016289912231</v>
+        <v>20.50829345483494</v>
       </c>
       <c r="C13">
-        <v>16.75157454262458</v>
+        <v>10.07585262767554</v>
       </c>
       <c r="D13">
-        <v>9.408923024127636</v>
+        <v>6.594395763667416</v>
       </c>
       <c r="E13">
-        <v>7.420476839748858</v>
+        <v>11.08208936799767</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>79.82066028502113</v>
+        <v>62.03172475201639</v>
       </c>
       <c r="H13">
-        <v>20.70280882344699</v>
+        <v>21.31863183722481</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.604697998795841</v>
+        <v>9.973151969867923</v>
       </c>
       <c r="M13">
-        <v>15.91396285464709</v>
+        <v>16.94346872872186</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.97997505153779</v>
+        <v>20.43514242357594</v>
       </c>
       <c r="C14">
-        <v>16.6090263177552</v>
+        <v>10.01171076927928</v>
       </c>
       <c r="D14">
-        <v>9.315166330088008</v>
+        <v>6.569531661080045</v>
       </c>
       <c r="E14">
-        <v>7.419835439945994</v>
+        <v>11.08222879851269</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>79.13883358622763</v>
+        <v>61.84663069711216</v>
       </c>
       <c r="H14">
-        <v>20.5675143015466</v>
+        <v>21.29594319565138</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.583401733207434</v>
+        <v>9.973762264324284</v>
       </c>
       <c r="M14">
-        <v>15.76005994045702</v>
+        <v>16.92893402295975</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.80766256765925</v>
+        <v>20.39032720829537</v>
       </c>
       <c r="C15">
-        <v>16.52142692279331</v>
+        <v>9.972187724815164</v>
       </c>
       <c r="D15">
-        <v>9.257517684560588</v>
+        <v>6.554292210145303</v>
       </c>
       <c r="E15">
-        <v>7.419474362300917</v>
+        <v>11.08231663114235</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>78.72093008357842</v>
+        <v>61.73327753089751</v>
       </c>
       <c r="H15">
-        <v>20.48480818145617</v>
+        <v>21.28211591095457</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.570440544355624</v>
+        <v>9.974165046086894</v>
       </c>
       <c r="M15">
-        <v>15.66539983223207</v>
+        <v>16.9201042827995</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.80935134910858</v>
+        <v>20.13346901393923</v>
       </c>
       <c r="C16">
-        <v>16.01491219926905</v>
+        <v>9.742121437298085</v>
       </c>
       <c r="D16">
-        <v>8.92367703725483</v>
+        <v>6.466842831460518</v>
       </c>
       <c r="E16">
-        <v>7.417865915821375</v>
+        <v>11.08285700949016</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>76.3214993513608</v>
+        <v>61.08420294998297</v>
       </c>
       <c r="H16">
-        <v>20.0132797058695</v>
+        <v>21.20396290959216</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.497416379386797</v>
+        <v>9.976917263229749</v>
       </c>
       <c r="M16">
-        <v>15.11679670483786</v>
+        <v>16.87063555092739</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.18692948865181</v>
+        <v>19.97595129618444</v>
       </c>
       <c r="C17">
-        <v>15.69999055595467</v>
+        <v>9.597810763353321</v>
       </c>
       <c r="D17">
-        <v>8.715659602185346</v>
+        <v>6.413119709332402</v>
       </c>
       <c r="E17">
-        <v>7.417263172897036</v>
+        <v>11.08322139655449</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>74.84492385194345</v>
+        <v>60.68664948665644</v>
       </c>
       <c r="H17">
-        <v>19.7260707348045</v>
+        <v>21.15699802375424</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.453707411250338</v>
+        <v>9.979002057324893</v>
       </c>
       <c r="M17">
-        <v>14.7745929754131</v>
+        <v>16.84130698347943</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.82514438580491</v>
+        <v>19.88540920102328</v>
       </c>
       <c r="C18">
-        <v>15.51725684903457</v>
+        <v>9.513648996237212</v>
       </c>
       <c r="D18">
-        <v>8.59478886483824</v>
+        <v>6.382203744325267</v>
       </c>
       <c r="E18">
-        <v>7.417047537531809</v>
+        <v>11.08344299814791</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>73.99377707204964</v>
+        <v>60.4582919380806</v>
       </c>
       <c r="H18">
-        <v>19.56159573399274</v>
+        <v>21.13034915689785</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.428957184607599</v>
+        <v>9.980346912352173</v>
       </c>
       <c r="M18">
-        <v>14.57562427205328</v>
+        <v>16.82481616445181</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.70199000405472</v>
+        <v>19.85476672617169</v>
       </c>
       <c r="C19">
-        <v>15.4551065272609</v>
+        <v>9.484955159771626</v>
       </c>
       <c r="D19">
-        <v>8.553649944149466</v>
+        <v>6.371734563930759</v>
       </c>
       <c r="E19">
-        <v>7.416996139284517</v>
+        <v>11.08352008592168</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>73.70526085095501</v>
+        <v>60.38103320994153</v>
       </c>
       <c r="H19">
-        <v>19.50602804871862</v>
+        <v>21.12138922370507</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.42064326162476</v>
+        <v>9.980827292663292</v>
       </c>
       <c r="M19">
-        <v>14.50788312342879</v>
+        <v>16.81929795830367</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.25357658936127</v>
+        <v>19.99271417726506</v>
       </c>
       <c r="C20">
-        <v>15.73367874814537</v>
+        <v>9.613292923338568</v>
       </c>
       <c r="D20">
-        <v>8.737929232584005</v>
+        <v>6.418840541050212</v>
       </c>
       <c r="E20">
-        <v>7.417313556744953</v>
+        <v>11.08318136180483</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>75.00229699645311</v>
+        <v>60.72893983151547</v>
       </c>
       <c r="H20">
-        <v>19.75656937268051</v>
+        <v>21.16195992530695</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.458319721279474</v>
+        <v>9.978765045516065</v>
       </c>
       <c r="M20">
-        <v>14.81124144687557</v>
+        <v>16.84439000051487</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.06241594853179</v>
+        <v>20.45663054068124</v>
       </c>
       <c r="C21">
-        <v>16.65095508146193</v>
+        <v>10.03059965226057</v>
       </c>
       <c r="D21">
-        <v>9.342750517475217</v>
+        <v>6.576836888036064</v>
       </c>
       <c r="E21">
-        <v>7.420017141549827</v>
+        <v>11.08218733813604</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>79.3391564499759</v>
+        <v>61.90099305626665</v>
       </c>
       <c r="H21">
-        <v>20.60721876353755</v>
+        <v>21.30259280235225</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.589639517323667</v>
+        <v>9.973576971514294</v>
       </c>
       <c r="M21">
-        <v>15.80534585374354</v>
+        <v>16.93318798860567</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.21343109226787</v>
+        <v>20.75956357844545</v>
       </c>
       <c r="C22">
-        <v>17.23755056166859</v>
+        <v>10.29286672945323</v>
       </c>
       <c r="D22">
-        <v>9.728074486779548</v>
+        <v>6.679704743751989</v>
       </c>
       <c r="E22">
-        <v>7.423179352070224</v>
+        <v>11.0816461466915</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>82.16118777493232</v>
+        <v>62.66818863172225</v>
       </c>
       <c r="H22">
-        <v>21.17047663502064</v>
+        <v>21.39765624000978</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.679168651107768</v>
+        <v>9.971482570370457</v>
       </c>
       <c r="M22">
-        <v>16.43741156125564</v>
+        <v>16.99450856478176</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.60183029823541</v>
+        <v>20.59794337659368</v>
       </c>
       <c r="C23">
-        <v>16.92558075315838</v>
+        <v>10.15385418623044</v>
       </c>
       <c r="D23">
-        <v>9.523281914500895</v>
+        <v>6.624849889112958</v>
       </c>
       <c r="E23">
-        <v>7.421351642825572</v>
+        <v>11.0819249951874</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>80.65589058697228</v>
+        <v>62.25868568159626</v>
       </c>
       <c r="H23">
-        <v>20.86913247129156</v>
+        <v>21.34663527990986</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.631033873412363</v>
+        <v>9.972481862993718</v>
       </c>
       <c r="M23">
-        <v>16.10160490581577</v>
+        <v>16.9614840811269</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.22345775413319</v>
+        <v>19.98513561719743</v>
       </c>
       <c r="C24">
-        <v>15.71845356637603</v>
+        <v>9.606297161124221</v>
       </c>
       <c r="D24">
-        <v>8.727865125620461</v>
+        <v>6.4162542431041</v>
       </c>
       <c r="E24">
-        <v>7.41729037286991</v>
+        <v>11.0831994238095</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>74.93115562642279</v>
+        <v>60.70981972278729</v>
       </c>
       <c r="H24">
-        <v>19.7427789372261</v>
+        <v>21.15971555263395</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.456233318923639</v>
+        <v>9.978871742913444</v>
       </c>
       <c r="M24">
-        <v>14.79467963784127</v>
+        <v>16.84299501339906</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.51226799179912</v>
+        <v>19.32683714246834</v>
       </c>
       <c r="C25">
-        <v>14.35477138839682</v>
+        <v>8.971531331096758</v>
       </c>
       <c r="D25">
-        <v>7.822648820307464</v>
+        <v>6.190807350445608</v>
       </c>
       <c r="E25">
-        <v>7.417834019449705</v>
+        <v>11.085032649733</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>68.68486569775033</v>
+        <v>59.05169551279194</v>
       </c>
       <c r="H25">
-        <v>18.55525136829388</v>
+        <v>20.97205506074156</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.282504348112497</v>
+        <v>9.991336233587125</v>
       </c>
       <c r="M25">
-        <v>13.30242385272921</v>
+        <v>16.72968370954814</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_236/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_236/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.84877743030339</v>
+        <v>21.37937118110537</v>
       </c>
       <c r="C2">
-        <v>8.467262516539574</v>
+        <v>13.29226364003032</v>
       </c>
       <c r="D2">
-        <v>6.025832147652803</v>
+        <v>7.111164034588858</v>
       </c>
       <c r="E2">
-        <v>11.08676915021225</v>
+        <v>7.421518759374217</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>57.84971770939936</v>
+        <v>64.01499807582343</v>
       </c>
       <c r="H2">
-        <v>20.84627224527631</v>
+        <v>17.70192258598645</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.00530866477253</v>
+        <v>6.166319313263221</v>
       </c>
       <c r="M2">
-        <v>16.65907924409281</v>
+        <v>12.4649653345135</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.53120132466005</v>
+        <v>19.84407007153311</v>
       </c>
       <c r="C3">
-        <v>8.103244832029704</v>
+        <v>12.53386874639263</v>
       </c>
       <c r="D3">
-        <v>5.915409022124485</v>
+        <v>6.599055011630639</v>
       </c>
       <c r="E3">
-        <v>11.08818344010213</v>
+        <v>7.425689373022698</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>57.05102847272899</v>
+        <v>60.80798303906843</v>
       </c>
       <c r="H3">
-        <v>20.76891903457282</v>
+        <v>17.13645082549775</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.01776881871444</v>
+        <v>6.094472190911014</v>
       </c>
       <c r="M3">
-        <v>16.61938382040234</v>
+        <v>11.92674629573657</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.34014054749969</v>
+        <v>18.85586472230217</v>
       </c>
       <c r="C4">
-        <v>7.869076040731149</v>
+        <v>12.04892910952413</v>
       </c>
       <c r="D4">
-        <v>5.848546960752619</v>
+        <v>6.276178897868659</v>
       </c>
       <c r="E4">
-        <v>11.08916771116861</v>
+        <v>7.428972674115466</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.56984056009963</v>
+        <v>58.82059405043667</v>
       </c>
       <c r="H4">
-        <v>20.72536101413633</v>
+        <v>16.79570294604009</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.0268943145043</v>
+        <v>6.053630552530385</v>
       </c>
       <c r="M4">
-        <v>16.59907578313822</v>
+        <v>11.59495210874975</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.26338709492128</v>
+        <v>18.4415672567811</v>
       </c>
       <c r="C5">
-        <v>7.771028459371651</v>
+        <v>11.84643512366094</v>
       </c>
       <c r="D5">
-        <v>5.821575146787315</v>
+        <v>6.159772176642831</v>
       </c>
       <c r="E5">
-        <v>11.08959777205918</v>
+        <v>7.430478835597154</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.37627279005687</v>
+        <v>58.00671303955623</v>
       </c>
       <c r="H5">
-        <v>20.70860694771635</v>
+        <v>16.65850588040028</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.03098385761376</v>
+        <v>6.037792430822949</v>
       </c>
       <c r="M5">
-        <v>16.59182821521824</v>
+        <v>11.45956013324506</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.25071237947277</v>
+        <v>18.37887042328143</v>
       </c>
       <c r="C6">
-        <v>7.75459128177686</v>
+        <v>11.81251623590346</v>
       </c>
       <c r="D6">
-        <v>5.817114246575329</v>
+        <v>6.140319821740952</v>
       </c>
       <c r="E6">
-        <v>11.0896709274059</v>
+        <v>7.430738724472164</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>56.34428906920975</v>
+        <v>57.87134755417794</v>
       </c>
       <c r="H6">
-        <v>20.7058852706308</v>
+        <v>16.63582600633706</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.03168531787701</v>
+        <v>6.035210635992224</v>
       </c>
       <c r="M6">
-        <v>16.59068701122449</v>
+        <v>11.43707224061581</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.3391007952266</v>
+        <v>18.85032448768273</v>
       </c>
       <c r="C7">
-        <v>7.867764268019882</v>
+        <v>12.04621797178396</v>
       </c>
       <c r="D7">
-        <v>5.848182044344117</v>
+        <v>6.274617299189894</v>
       </c>
       <c r="E7">
-        <v>11.08917339406588</v>
+        <v>7.428992322488346</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.56721956818254</v>
+        <v>58.80963306907165</v>
       </c>
       <c r="H7">
-        <v>20.725131022375</v>
+        <v>16.79384587747445</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.02694796614872</v>
+        <v>6.053413717318763</v>
       </c>
       <c r="M7">
-        <v>16.59897387007002</v>
+        <v>11.5931266887999</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.73853138287272</v>
+        <v>20.85934947118533</v>
       </c>
       <c r="C8">
-        <v>8.343994181617601</v>
+        <v>13.03474608203555</v>
       </c>
       <c r="D8">
-        <v>5.987587028729017</v>
+        <v>6.937720291716749</v>
       </c>
       <c r="E8">
-        <v>11.08723263560413</v>
+        <v>7.422798212246791</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>57.57254222472119</v>
+        <v>62.91330846668929</v>
       </c>
       <c r="H8">
-        <v>20.81878773736144</v>
+        <v>17.50562672945328</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.00929879200683</v>
+        <v>6.140856327688664</v>
       </c>
       <c r="M8">
-        <v>16.6445523951314</v>
+        <v>12.27974400645294</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.54785020075698</v>
+        <v>24.44608245874785</v>
       </c>
       <c r="C9">
-        <v>9.19116716839981</v>
+        <v>14.82289835826224</v>
       </c>
       <c r="D9">
-        <v>6.266687762943307</v>
+        <v>8.134290192200153</v>
       </c>
       <c r="E9">
-        <v>11.0843545460656</v>
+        <v>7.417084326394301</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>59.6078497589692</v>
+        <v>70.79971824990149</v>
       </c>
       <c r="H9">
-        <v>21.03336793342494</v>
+        <v>18.95190218616273</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.986392810712582</v>
+        <v>6.339141647913124</v>
       </c>
       <c r="M9">
-        <v>16.7658828126018</v>
+        <v>13.81674014368688</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.15144802176962</v>
+        <v>26.87986920328455</v>
       </c>
       <c r="C10">
-        <v>9.75843078335885</v>
+        <v>16.05063439104626</v>
       </c>
       <c r="D10">
-        <v>6.472969991205336</v>
+        <v>8.947250342190523</v>
       </c>
       <c r="E10">
-        <v>11.08281706351165</v>
+        <v>7.417953158736903</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>61.12960261159046</v>
+        <v>76.489746144899</v>
       </c>
       <c r="H10">
-        <v>21.20937096889499</v>
+        <v>20.04615227334775</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.976699117263747</v>
+        <v>6.50245744231183</v>
       </c>
       <c r="M10">
-        <v>16.87403312271295</v>
+        <v>15.15555884034704</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.42657279396526</v>
+        <v>27.94706476738391</v>
       </c>
       <c r="C11">
-        <v>10.00416663853517</v>
+        <v>16.5922916421227</v>
       </c>
       <c r="D11">
-        <v>6.566617951206245</v>
+        <v>9.304155283493367</v>
       </c>
       <c r="E11">
-        <v>11.08224545095647</v>
+        <v>7.419764527681743</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>61.82495264392307</v>
+        <v>79.05893383705306</v>
       </c>
       <c r="H11">
-        <v>21.29329482536536</v>
+        <v>20.55168863281698</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.973837570713403</v>
+        <v>6.580918234269742</v>
       </c>
       <c r="M11">
-        <v>16.92724115766038</v>
+        <v>15.74198131071453</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.53072001384295</v>
+        <v>28.34580587362489</v>
       </c>
       <c r="C12">
-        <v>10.09542705970278</v>
+        <v>16.79517274731309</v>
       </c>
       <c r="D12">
-        <v>6.602015906197376</v>
+        <v>9.437585318985864</v>
       </c>
       <c r="E12">
-        <v>11.08204758406227</v>
+        <v>7.420686474023226</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>62.08848818379325</v>
+        <v>80.02963146099539</v>
       </c>
       <c r="H12">
-        <v>21.3256168437406</v>
+        <v>20.74436202800241</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.972976386890787</v>
+        <v>6.611261706857562</v>
       </c>
       <c r="M12">
-        <v>16.94795467768776</v>
+        <v>15.96100068606103</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.50829345483494</v>
+        <v>28.26016289912236</v>
       </c>
       <c r="C13">
-        <v>10.07585262767554</v>
+        <v>16.75157454262456</v>
       </c>
       <c r="D13">
-        <v>6.594395763667416</v>
+        <v>9.408923024127537</v>
       </c>
       <c r="E13">
-        <v>11.08208936799767</v>
+        <v>7.420476839748861</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>62.03172475201639</v>
+        <v>79.82066028502126</v>
       </c>
       <c r="H13">
-        <v>21.31863183722481</v>
+        <v>20.70280882344702</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.973151969867923</v>
+        <v>6.6046979987958</v>
       </c>
       <c r="M13">
-        <v>16.94346872872186</v>
+        <v>15.91396285464712</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.43514242357594</v>
+        <v>27.97997505153766</v>
       </c>
       <c r="C14">
-        <v>10.01171076927928</v>
+        <v>16.60902631775505</v>
       </c>
       <c r="D14">
-        <v>6.569531661080045</v>
+        <v>9.315166330087861</v>
       </c>
       <c r="E14">
-        <v>11.08222879851269</v>
+        <v>7.419835439945855</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>61.84663069711216</v>
+        <v>79.13883358622734</v>
       </c>
       <c r="H14">
-        <v>21.29594319565138</v>
+        <v>20.56751430154659</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.973762264324284</v>
+        <v>6.583401733207454</v>
       </c>
       <c r="M14">
-        <v>16.92893402295975</v>
+        <v>15.76005994045694</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.39032720829537</v>
+        <v>27.80766256765925</v>
       </c>
       <c r="C15">
-        <v>9.972187724815164</v>
+        <v>16.52142692279331</v>
       </c>
       <c r="D15">
-        <v>6.554292210145303</v>
+        <v>9.257517684560618</v>
       </c>
       <c r="E15">
-        <v>11.08231663114235</v>
+        <v>7.419474362300978</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>61.73327753089751</v>
+        <v>78.72093008357841</v>
       </c>
       <c r="H15">
-        <v>21.28211591095457</v>
+        <v>20.48480818145617</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.974165046086894</v>
+        <v>6.570440544355688</v>
       </c>
       <c r="M15">
-        <v>16.9201042827995</v>
+        <v>15.66539983223202</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.13346901393923</v>
+        <v>26.80935134910854</v>
       </c>
       <c r="C16">
-        <v>9.742121437298085</v>
+        <v>16.01491219926905</v>
       </c>
       <c r="D16">
-        <v>6.466842831460518</v>
+        <v>8.923677037254944</v>
       </c>
       <c r="E16">
-        <v>11.08285700949016</v>
+        <v>7.417865915821445</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>61.08420294998297</v>
+        <v>76.32149935136063</v>
       </c>
       <c r="H16">
-        <v>21.20396290959216</v>
+        <v>20.01327970586946</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.976917263229749</v>
+        <v>6.497416379386826</v>
       </c>
       <c r="M16">
-        <v>16.87063555092739</v>
+        <v>15.11679670483785</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.97595129618444</v>
+        <v>26.18692948865176</v>
       </c>
       <c r="C17">
-        <v>9.597810763353321</v>
+        <v>15.69999055595471</v>
       </c>
       <c r="D17">
-        <v>6.413119709332402</v>
+        <v>8.71565960218526</v>
       </c>
       <c r="E17">
-        <v>11.08322139655449</v>
+        <v>7.417263172897166</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>60.68664948665644</v>
+        <v>74.84492385194352</v>
       </c>
       <c r="H17">
-        <v>21.15699802375424</v>
+        <v>19.72607073480451</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.979002057324893</v>
+        <v>6.453707411250344</v>
       </c>
       <c r="M17">
-        <v>16.84130698347943</v>
+        <v>14.77459297541307</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.88540920102328</v>
+        <v>25.82514438580488</v>
       </c>
       <c r="C18">
-        <v>9.513648996237212</v>
+        <v>15.51725684903448</v>
       </c>
       <c r="D18">
-        <v>6.382203744325267</v>
+        <v>8.594788864838293</v>
       </c>
       <c r="E18">
-        <v>11.08344299814791</v>
+        <v>7.417047537531746</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>60.4582919380806</v>
+        <v>73.99377707204961</v>
       </c>
       <c r="H18">
-        <v>21.13034915689785</v>
+        <v>19.56159573399277</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.980346912352173</v>
+        <v>6.428957184607617</v>
       </c>
       <c r="M18">
-        <v>16.82481616445181</v>
+        <v>14.57562427205326</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.85476672617169</v>
+        <v>25.70199000405471</v>
       </c>
       <c r="C19">
-        <v>9.484955159771626</v>
+        <v>15.45510652726088</v>
       </c>
       <c r="D19">
-        <v>6.371734563930759</v>
+        <v>8.553649944149454</v>
       </c>
       <c r="E19">
-        <v>11.08352008592168</v>
+        <v>7.41699613928459</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>60.38103320994153</v>
+        <v>73.70526085095541</v>
       </c>
       <c r="H19">
-        <v>21.12138922370507</v>
+        <v>19.5060280487187</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.980827292663292</v>
+        <v>6.420643261624735</v>
       </c>
       <c r="M19">
-        <v>16.81929795830367</v>
+        <v>14.50788312342882</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.99271417726506</v>
+        <v>26.25357658936118</v>
       </c>
       <c r="C20">
-        <v>9.613292923338568</v>
+        <v>15.73367874814549</v>
       </c>
       <c r="D20">
-        <v>6.418840541050212</v>
+        <v>8.737929232584035</v>
       </c>
       <c r="E20">
-        <v>11.08318136180483</v>
+        <v>7.417313556744817</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>60.72893983151547</v>
+        <v>75.00229699645284</v>
       </c>
       <c r="H20">
-        <v>21.16195992530695</v>
+        <v>19.75656937268048</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.978765045516065</v>
+        <v>6.458319721279398</v>
       </c>
       <c r="M20">
-        <v>16.84439000051487</v>
+        <v>14.81124144687555</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.45663054068124</v>
+        <v>28.06241594853159</v>
       </c>
       <c r="C21">
-        <v>10.03059965226057</v>
+        <v>16.65095508146207</v>
       </c>
       <c r="D21">
-        <v>6.576836888036064</v>
+        <v>9.342750517475217</v>
       </c>
       <c r="E21">
-        <v>11.08218733813604</v>
+        <v>7.420017141549817</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>61.90099305626665</v>
+        <v>79.33915644997541</v>
       </c>
       <c r="H21">
-        <v>21.30259280235225</v>
+        <v>20.60721876353749</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.973576971514294</v>
+        <v>6.589639517323646</v>
       </c>
       <c r="M21">
-        <v>16.93318798860567</v>
+        <v>15.80534585374343</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.75956357844545</v>
+        <v>29.21343109226777</v>
       </c>
       <c r="C22">
-        <v>10.29286672945323</v>
+        <v>17.23755056166846</v>
       </c>
       <c r="D22">
-        <v>6.679704743751989</v>
+        <v>9.728074486779487</v>
       </c>
       <c r="E22">
-        <v>11.0816461466915</v>
+        <v>7.423179352070089</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>62.66818863172225</v>
+        <v>82.16118777493212</v>
       </c>
       <c r="H22">
-        <v>21.39765624000978</v>
+        <v>21.17047663502063</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.971482570370457</v>
+        <v>6.679168651107793</v>
       </c>
       <c r="M22">
-        <v>16.99450856478176</v>
+        <v>16.43741156125556</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.59794337659368</v>
+        <v>28.60183029823539</v>
       </c>
       <c r="C23">
-        <v>10.15385418623044</v>
+        <v>16.92558075315823</v>
       </c>
       <c r="D23">
-        <v>6.624849889112958</v>
+        <v>9.523281914500791</v>
       </c>
       <c r="E23">
-        <v>11.0819249951874</v>
+        <v>7.421351642825567</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>62.25868568159626</v>
+        <v>80.65589058697196</v>
       </c>
       <c r="H23">
-        <v>21.34663527990986</v>
+        <v>20.86913247129151</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.972481862993718</v>
+        <v>6.631033873412348</v>
       </c>
       <c r="M23">
-        <v>16.9614840811269</v>
+        <v>16.10160490581575</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.98513561719743</v>
+        <v>26.22345775413329</v>
       </c>
       <c r="C24">
-        <v>9.606297161124221</v>
+        <v>15.718453566376</v>
       </c>
       <c r="D24">
-        <v>6.4162542431041</v>
+        <v>8.727865125620406</v>
       </c>
       <c r="E24">
-        <v>11.0831994238095</v>
+        <v>7.41729037286985</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>60.70981972278729</v>
+        <v>74.93115562642295</v>
       </c>
       <c r="H24">
-        <v>21.15971555263395</v>
+        <v>19.74277893722607</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.978871742913444</v>
+        <v>6.456233318923597</v>
       </c>
       <c r="M24">
-        <v>16.84299501339906</v>
+        <v>14.79467963784136</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.32683714246834</v>
+        <v>23.51226799179912</v>
       </c>
       <c r="C25">
-        <v>8.971531331096758</v>
+        <v>14.35477138839648</v>
       </c>
       <c r="D25">
-        <v>6.190807350445608</v>
+        <v>7.822648820307545</v>
       </c>
       <c r="E25">
-        <v>11.085032649733</v>
+        <v>7.417834019449707</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>59.05169551279194</v>
+        <v>68.68486569775047</v>
       </c>
       <c r="H25">
-        <v>20.97205506074156</v>
+        <v>18.55525136829396</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.991336233587125</v>
+        <v>6.282504348112569</v>
       </c>
       <c r="M25">
-        <v>16.72968370954814</v>
+        <v>13.30242385272916</v>
       </c>
       <c r="N25">
         <v>0</v>
